--- a/Woltz1990_Table2.xlsx
+++ b/Woltz1990_Table2.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ringelblume/Desktop/GitHub/Semantic_Surprise_N400/SemSur_modeling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ringelblume/Desktop/GitHub/Semantic_Surprise_N400/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25500" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Woltz1990_Table2_Synonym_rep_me" sheetId="1" r:id="rId1"/>
+    <sheet name="Woltz1990_Table2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
